--- a/data/trans_orig/P21-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACFACBF1-0AC3-44A7-A6C2-640F7A241934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB122D8-8993-4D08-8643-0B11D7DE1332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D58BF45E-F159-4624-99A7-148376F9333E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E23A27F8-9C69-4016-8B75-FD83C8023AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="797">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,2377 +77,2359 @@
     <t>85,55%</t>
   </si>
   <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>78,49%</t>
   </si>
   <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>82,1%</t>
   </si>
   <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>74,99%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
   </si>
   <si>
     <t>30,7%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>21,54%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
   </si>
 </sst>
 </file>
@@ -2859,7 +2841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7076ACFA-CEA6-4D98-8E81-780AF3B1F068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53656667-A56A-47B7-A3D6-F972BFFE6AAC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3637,7 +3619,7 @@
         <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3634,13 @@
         <v>2394</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3667,13 +3649,13 @@
         <v>6316</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3682,13 +3664,13 @@
         <v>8710</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3685,13 @@
         <v>72211</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H18" s="7">
         <v>103</v>
@@ -3718,13 +3700,13 @@
         <v>97443</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>178</v>
@@ -3733,13 +3715,13 @@
         <v>169654</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,7 +3777,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3807,13 +3789,13 @@
         <v>168536</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -3822,13 +3804,13 @@
         <v>165627</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>328</v>
@@ -3837,13 +3819,13 @@
         <v>334163</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3840,13 @@
         <v>898</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -3873,13 +3855,13 @@
         <v>1015</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -3888,13 +3870,13 @@
         <v>1914</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3891,13 @@
         <v>33874</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -3924,13 +3906,13 @@
         <v>41026</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>74</v>
@@ -3939,13 +3921,13 @@
         <v>74899</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,7 +3983,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4013,13 +3995,13 @@
         <v>212272</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H24" s="7">
         <v>186</v>
@@ -4028,13 +4010,13 @@
         <v>189808</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>394</v>
@@ -4043,13 +4025,13 @@
         <v>402080</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4046,13 @@
         <v>1029</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4094,13 +4076,13 @@
         <v>1029</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4097,13 @@
         <v>57510</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>83</v>
@@ -4130,13 +4112,13 @@
         <v>87395</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>140</v>
@@ -4145,13 +4127,13 @@
         <v>144905</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,7 +4189,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4219,13 +4201,13 @@
         <v>503931</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H28" s="7">
         <v>457</v>
@@ -4234,13 +4216,13 @@
         <v>469513</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>947</v>
@@ -4249,13 +4231,13 @@
         <v>973444</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4252,13 @@
         <v>2697</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -4285,13 +4267,13 @@
         <v>5865</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -4300,13 +4282,13 @@
         <v>8562</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4303,13 @@
         <v>107514</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H30" s="7">
         <v>158</v>
@@ -4336,13 +4318,13 @@
         <v>162840</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M30" s="7">
         <v>262</v>
@@ -4351,13 +4333,13 @@
         <v>270354</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4395,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4425,13 +4407,13 @@
         <v>644978</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>602</v>
@@ -4440,13 +4422,13 @@
         <v>631478</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>1241</v>
@@ -4455,13 +4437,13 @@
         <v>1276456</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4458,13 @@
         <v>3864</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -4491,13 +4473,13 @@
         <v>14143</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="M33" s="7">
         <v>17</v>
@@ -4506,13 +4488,13 @@
         <v>18007</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4509,13 @@
         <v>94953</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H34" s="7">
         <v>130</v>
@@ -4542,13 +4524,13 @@
         <v>137890</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M34" s="7">
         <v>223</v>
@@ -4557,13 +4539,13 @@
         <v>232843</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4613,13 @@
         <v>2715312</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7">
         <v>2493</v>
@@ -4646,13 +4628,13 @@
         <v>2554248</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M36" s="7">
         <v>5157</v>
@@ -4661,13 +4643,13 @@
         <v>5269561</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4664,13 @@
         <v>19609</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="H37" s="7">
         <v>34</v>
@@ -4697,13 +4679,13 @@
         <v>35452</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M37" s="7">
         <v>53</v>
@@ -4712,13 +4694,13 @@
         <v>55062</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4715,13 @@
         <v>540737</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H38" s="7">
         <v>769</v>
@@ -4748,13 +4730,13 @@
         <v>788556</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M38" s="7">
         <v>1299</v>
@@ -4763,13 +4745,13 @@
         <v>1329293</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,7 +4807,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4849,7 +4831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D837B566-61BB-4B90-8DC4-D2299A082FA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522DC18E-31F9-4F47-9B00-151041B3BC01}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4866,7 +4848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4971,39 +4953,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,39 +4998,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,39 +5043,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,39 +5088,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5137,13 @@
         <v>374221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -5170,13 +5152,13 @@
         <v>324564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>644</v>
@@ -5185,13 +5167,13 @@
         <v>698784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5188,13 @@
         <v>4079</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5221,13 +5203,13 @@
         <v>7476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -5236,13 +5218,13 @@
         <v>11554</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5239,13 @@
         <v>127228</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>178</v>
@@ -5272,13 +5254,13 @@
         <v>191726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
@@ -5287,13 +5269,13 @@
         <v>318953</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5343,13 @@
         <v>247524</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H12" s="7">
         <v>228</v>
@@ -5376,13 +5358,13 @@
         <v>244762</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M12" s="7">
         <v>471</v>
@@ -5391,13 +5373,13 @@
         <v>492286</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5394,13 @@
         <v>4357</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5427,13 +5409,13 @@
         <v>4366</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5442,13 +5424,13 @@
         <v>8722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5445,13 @@
         <v>72165</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>85</v>
@@ -5478,13 +5460,13 @@
         <v>91892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>157</v>
@@ -5493,13 +5475,13 @@
         <v>164057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5549,13 @@
         <v>486421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>426</v>
@@ -5582,13 +5564,13 @@
         <v>458628</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>881</v>
@@ -5597,13 +5579,13 @@
         <v>945050</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5600,13 @@
         <v>11358</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5633,13 +5615,13 @@
         <v>10360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -5648,13 +5630,13 @@
         <v>21717</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5651,13 @@
         <v>170214</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H18" s="7">
         <v>189</v>
@@ -5684,13 +5666,13 @@
         <v>205071</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>347</v>
@@ -5699,13 +5681,13 @@
         <v>375285</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,7 +5743,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5773,13 +5755,13 @@
         <v>175751</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>136</v>
@@ -5788,13 +5770,13 @@
         <v>140677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>296</v>
@@ -5803,13 +5785,13 @@
         <v>316428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5806,13 @@
         <v>1035</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -5839,13 +5821,13 @@
         <v>4762</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5854,13 +5836,13 @@
         <v>5796</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5857,13 @@
         <v>35832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -5890,13 +5872,13 @@
         <v>74152</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -5905,13 +5887,13 @@
         <v>109985</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,7 +5949,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5979,13 +5961,13 @@
         <v>209702</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H24" s="7">
         <v>178</v>
@@ -5994,13 +5976,13 @@
         <v>183883</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>378</v>
@@ -6009,13 +5991,13 @@
         <v>393584</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6012,13 @@
         <v>3186</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6045,13 +6027,13 @@
         <v>4257</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6060,13 +6042,13 @@
         <v>7443</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>77</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6063,13 @@
         <v>61094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -6096,13 +6078,13 @@
         <v>91891</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>61</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -6111,13 +6093,13 @@
         <v>152985</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,7 +6155,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6185,13 +6167,13 @@
         <v>516101</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>269</v>
       </c>
       <c r="H28" s="7">
         <v>462</v>
@@ -6200,13 +6182,13 @@
         <v>506922</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>357</v>
+        <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M28" s="7">
         <v>943</v>
@@ -6215,13 +6197,13 @@
         <v>1023023</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6218,13 @@
         <v>7938</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>363</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -6251,10 +6233,10 @@
         <v>13066</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>365</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>366</v>
@@ -6272,7 +6254,7 @@
         <v>368</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6269,13 @@
         <v>138749</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H30" s="7">
         <v>163</v>
@@ -6302,13 +6284,13 @@
         <v>173866</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M30" s="7">
         <v>292</v>
@@ -6317,13 +6299,13 @@
         <v>312615</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,7 +6361,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6391,13 +6373,13 @@
         <v>707820</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H32" s="7">
         <v>662</v>
@@ -6406,13 +6388,13 @@
         <v>716295</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M32" s="7">
         <v>1317</v>
@@ -6421,13 +6403,13 @@
         <v>1424115</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,10 +6424,10 @@
         <v>3113</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>388</v>
+        <v>198</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>389</v>
@@ -6457,13 +6439,13 @@
         <v>9004</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>226</v>
+        <v>390</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>390</v>
+        <v>197</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>391</v>
+        <v>175</v>
       </c>
       <c r="M33" s="7">
         <v>11</v>
@@ -6472,13 +6454,13 @@
         <v>12117</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P33" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="Q33" s="7" t="s">
-        <v>393</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6475,13 @@
         <v>66211</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H34" s="7">
         <v>86</v>
@@ -6508,13 +6490,13 @@
         <v>97585</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M34" s="7">
         <v>143</v>
@@ -6523,13 +6505,13 @@
         <v>163796</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,13 +6579,13 @@
         <v>2717540</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H36" s="7">
         <v>2387</v>
@@ -6612,13 +6594,13 @@
         <v>2575731</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M36" s="7">
         <v>4930</v>
@@ -6627,13 +6609,13 @@
         <v>5293272</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6630,13 @@
         <v>35064</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="H37" s="7">
         <v>49</v>
@@ -6666,10 +6648,10 @@
         <v>53</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>341</v>
+        <v>413</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M37" s="7">
         <v>84</v>
@@ -6678,13 +6660,13 @@
         <v>88354</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>413</v>
+        <v>172</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,28 +6681,28 @@
         <v>671493</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>235</v>
+        <v>418</v>
       </c>
       <c r="H38" s="7">
         <v>859</v>
       </c>
       <c r="I38" s="7">
-        <v>926182</v>
+        <v>926183</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>280</v>
+        <v>421</v>
       </c>
       <c r="M38" s="7">
         <v>1487</v>
@@ -6729,13 +6711,13 @@
         <v>1597676</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,7 +6744,7 @@
         <v>3295</v>
       </c>
       <c r="I39" s="7">
-        <v>3555203</v>
+        <v>3555204</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>36</v>
@@ -6791,7 +6773,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -6815,7 +6797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0968B0F7-A3D5-4948-BC8F-F744F9E12059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B549C98A-7E75-477E-8484-D718B4A78ED3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6832,7 +6814,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6939,13 +6921,13 @@
         <v>210063</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7">
         <v>173</v>
@@ -6954,13 +6936,13 @@
         <v>182764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
         <v>363</v>
@@ -6969,13 +6951,13 @@
         <v>392827</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>429</v>
+        <v>296</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +6972,13 @@
         <v>5291</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7005,13 +6987,13 @@
         <v>1211</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7020,13 +7002,13 @@
         <v>6502</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7023,13 @@
         <v>78407</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -7056,13 +7038,13 @@
         <v>102909</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M6" s="7">
         <v>173</v>
@@ -7071,13 +7053,13 @@
         <v>181316</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7127,13 @@
         <v>418908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H8" s="7">
         <v>382</v>
@@ -7160,13 +7142,13 @@
         <v>413084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>452</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M8" s="7">
         <v>781</v>
@@ -7175,13 +7157,13 @@
         <v>831992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7178,13 @@
         <v>3473</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>249</v>
+        <v>458</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>455</v>
+        <v>205</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -7211,13 +7193,13 @@
         <v>4621</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -7226,13 +7208,13 @@
         <v>8093</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>175</v>
+        <v>463</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>460</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,13 +7229,13 @@
         <v>80194</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -7262,13 +7244,13 @@
         <v>105379</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>464</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>171</v>
@@ -7277,13 +7259,13 @@
         <v>185574</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7333,13 @@
         <v>275849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H12" s="7">
         <v>282</v>
@@ -7366,13 +7348,13 @@
         <v>286525</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M12" s="7">
         <v>573</v>
@@ -7381,13 +7363,13 @@
         <v>562374</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,13 +7384,13 @@
         <v>8875</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>479</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -7417,13 +7399,13 @@
         <v>7855</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>484</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -7432,13 +7414,13 @@
         <v>16730</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>483</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7435,13 @@
         <v>28390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>489</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -7468,13 +7450,13 @@
         <v>39429</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M14" s="7">
         <v>70</v>
@@ -7483,13 +7465,13 @@
         <v>67818</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7539,13 @@
         <v>269650</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H16" s="7">
         <v>246</v>
@@ -7572,13 +7554,13 @@
         <v>261869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M16" s="7">
         <v>507</v>
@@ -7587,13 +7569,13 @@
         <v>531519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7590,13 @@
         <v>2731</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>457</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>506</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -7623,13 +7605,13 @@
         <v>6866</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>508</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>509</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -7638,13 +7620,13 @@
         <v>9597</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>436</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7641,13 @@
         <v>94625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>511</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="H18" s="7">
         <v>106</v>
@@ -7674,13 +7656,13 @@
         <v>118548</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>513</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>506</v>
+        <v>181</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="M18" s="7">
         <v>193</v>
@@ -7689,13 +7671,13 @@
         <v>213173</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>508</v>
+        <v>290</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,7 +7733,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7763,13 +7745,13 @@
         <v>182609</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H20" s="7">
         <v>191</v>
@@ -7778,13 +7760,13 @@
         <v>187185</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="M20" s="7">
         <v>374</v>
@@ -7793,13 +7775,13 @@
         <v>369795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7796,13 @@
         <v>1932</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -7829,13 +7811,13 @@
         <v>5145</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -7844,13 +7826,13 @@
         <v>7077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>524</v>
+        <v>204</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>366</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,13 +7847,13 @@
         <v>24423</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -7880,13 +7862,13 @@
         <v>25389</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>535</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7895,13 +7877,13 @@
         <v>49812</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>531</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,7 +7939,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7969,13 +7951,13 @@
         <v>205380</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="H24" s="7">
         <v>192</v>
@@ -7984,13 +7966,13 @@
         <v>196741</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="M24" s="7">
         <v>393</v>
@@ -7999,13 +7981,13 @@
         <v>402121</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>91</v>
+        <v>544</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,13 +8002,13 @@
         <v>8620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>542</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -8035,13 +8017,13 @@
         <v>1983</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>411</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -8050,13 +8032,13 @@
         <v>10602</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>412</v>
+        <v>550</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>415</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,13 +8053,13 @@
         <v>49123</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>547</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="H26" s="7">
         <v>69</v>
@@ -8086,13 +8068,13 @@
         <v>74392</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -8101,13 +8083,13 @@
         <v>123515</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,7 +8145,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8175,13 +8157,13 @@
         <v>581241</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>556</v>
+        <v>19</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H28" s="7">
         <v>532</v>
@@ -8190,13 +8172,13 @@
         <v>565045</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>559</v>
+        <v>66</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M28" s="7">
         <v>1047</v>
@@ -8205,13 +8187,13 @@
         <v>1146286</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,13 +8208,13 @@
         <v>7196</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>563</v>
+        <v>484</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>564</v>
+        <v>325</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>176</v>
+        <v>566</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -8241,13 +8223,13 @@
         <v>22690</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>391</v>
+        <v>568</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -8256,13 +8238,13 @@
         <v>29885</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,13 +8259,13 @@
         <v>68122</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H30" s="7">
         <v>94</v>
@@ -8292,13 +8274,13 @@
         <v>102288</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M30" s="7">
         <v>152</v>
@@ -8307,13 +8289,13 @@
         <v>170410</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,7 +8351,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8381,13 +8363,13 @@
         <v>675396</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>578</v>
+        <v>450</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H32" s="7">
         <v>627</v>
@@ -8396,13 +8378,13 @@
         <v>683389</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M32" s="7">
         <v>1278</v>
@@ -8411,13 +8393,13 @@
         <v>1358785</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>585</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8432,13 +8414,13 @@
         <v>8090</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -8447,13 +8429,13 @@
         <v>10187</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>198</v>
+        <v>591</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>590</v>
+        <v>303</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -8462,10 +8444,10 @@
         <v>18277</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>592</v>
+        <v>98</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>593</v>
@@ -8489,7 +8471,7 @@
         <v>595</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="H34" s="7">
         <v>120</v>
@@ -8498,13 +8480,13 @@
         <v>132591</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>598</v>
+        <v>552</v>
       </c>
       <c r="M34" s="7">
         <v>211</v>
@@ -8641,10 +8623,10 @@
         <v>611</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>411</v>
+        <v>612</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -8653,13 +8635,13 @@
         <v>60556</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>393</v>
+        <v>278</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>613</v>
+        <v>570</v>
       </c>
       <c r="M37" s="7">
         <v>98</v>
@@ -8668,13 +8650,13 @@
         <v>106764</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8689,13 +8671,13 @@
         <v>518382</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>618</v>
+        <v>130</v>
       </c>
       <c r="H38" s="7">
         <v>655</v>
@@ -8704,13 +8686,13 @@
         <v>700924</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>621</v>
+        <v>333</v>
       </c>
       <c r="M38" s="7">
         <v>1140</v>
@@ -8719,13 +8701,13 @@
         <v>1219306</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>574</v>
+        <v>618</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8781,7 +8763,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -8805,7 +8787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EE621E-88F3-4E28-B55D-31533D2AA72A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B50BC6A-110D-4998-9807-FA04093CADD5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8822,7 +8804,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8929,13 +8911,13 @@
         <v>170436</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="H4" s="7">
         <v>334</v>
@@ -8944,13 +8926,13 @@
         <v>164778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="M4" s="7">
         <v>559</v>
@@ -8959,13 +8941,13 @@
         <v>335214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8962,13 @@
         <v>1316</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -8995,13 +8977,13 @@
         <v>2389</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -9010,13 +8992,13 @@
         <v>3706</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>635</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>638</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>542</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9031,13 +9013,13 @@
         <v>88545</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H6" s="7">
         <v>199</v>
@@ -9046,13 +9028,13 @@
         <v>104236</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="M6" s="7">
         <v>303</v>
@@ -9061,13 +9043,13 @@
         <v>192781</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,13 +9117,13 @@
         <v>440659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H8" s="7">
         <v>568</v>
@@ -9150,13 +9132,13 @@
         <v>442026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>607</v>
+        <v>648</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M8" s="7">
         <v>889</v>
@@ -9165,13 +9147,13 @@
         <v>882685</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9192,7 +9174,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>656</v>
+        <v>589</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -9201,13 +9183,13 @@
         <v>2478</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>658</v>
+        <v>412</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -9216,13 +9198,13 @@
         <v>2478</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9237,13 +9219,13 @@
         <v>78638</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -9252,13 +9234,13 @@
         <v>109119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>665</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="M10" s="7">
         <v>206</v>
@@ -9267,13 +9249,13 @@
         <v>187757</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>663</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>667</v>
+        <v>596</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>668</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9341,13 +9323,13 @@
         <v>248759</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H12" s="7">
         <v>369</v>
@@ -9356,13 +9338,13 @@
         <v>252639</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="M12" s="7">
         <v>641</v>
@@ -9371,13 +9353,13 @@
         <v>501397</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,13 +9374,13 @@
         <v>3150</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>673</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>679</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -9407,13 +9389,13 @@
         <v>4458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>680</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -9422,13 +9404,13 @@
         <v>7608</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>105</v>
+        <v>675</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>412</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,13 +9425,13 @@
         <v>70332</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>682</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="H14" s="7">
         <v>160</v>
@@ -9458,13 +9440,13 @@
         <v>115583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="M14" s="7">
         <v>244</v>
@@ -9473,13 +9455,13 @@
         <v>185915</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9547,13 +9529,13 @@
         <v>240576</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="H16" s="7">
         <v>460</v>
@@ -9562,13 +9544,13 @@
         <v>327957</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>693</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="M16" s="7">
         <v>689</v>
@@ -9577,13 +9559,13 @@
         <v>568533</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9598,13 +9580,13 @@
         <v>1449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>692</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -9613,13 +9595,13 @@
         <v>4129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>699</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -9628,13 +9610,13 @@
         <v>5578</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>701</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9649,13 +9631,13 @@
         <v>78276</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H18" s="7">
         <v>131</v>
@@ -9664,13 +9646,13 @@
         <v>96470</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -9679,13 +9661,13 @@
         <v>174746</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>663</v>
+        <v>236</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9741,7 +9723,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9753,13 +9735,13 @@
         <v>177522</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="H20" s="7">
         <v>468</v>
@@ -9768,13 +9750,13 @@
         <v>220759</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="M20" s="7">
         <v>724</v>
@@ -9783,13 +9765,13 @@
         <v>398281</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9810,7 +9792,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -9825,7 +9807,7 @@
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -9840,7 +9822,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>718</v>
+        <v>674</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9855,13 +9837,13 @@
         <v>19226</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -9870,13 +9852,13 @@
         <v>11144</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -9885,13 +9867,13 @@
         <v>30370</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9947,7 +9929,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9959,13 +9941,13 @@
         <v>206071</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H24" s="7">
         <v>318</v>
@@ -9974,13 +9956,13 @@
         <v>193992</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="M24" s="7">
         <v>588</v>
@@ -9989,13 +9971,13 @@
         <v>400063</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>428</v>
+        <v>727</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>360</v>
+        <v>728</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10010,13 +9992,13 @@
         <v>1838</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>592</v>
+        <v>657</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>729</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -10025,13 +10007,13 @@
         <v>396</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>392</v>
+        <v>54</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -10040,13 +10022,13 @@
         <v>2234</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>735</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10061,13 +10043,13 @@
         <v>69314</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="H26" s="7">
         <v>141</v>
@@ -10076,13 +10058,13 @@
         <v>81234</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="M26" s="7">
         <v>239</v>
@@ -10091,13 +10073,13 @@
         <v>150548</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10153,7 +10135,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10165,13 +10147,13 @@
         <v>459507</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>746</v>
+        <v>359</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="H28" s="7">
         <v>628</v>
@@ -10180,13 +10162,13 @@
         <v>445814</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>537</v>
+        <v>743</v>
       </c>
       <c r="M28" s="7">
         <v>1070</v>
@@ -10195,13 +10177,13 @@
         <v>905321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10216,13 +10198,13 @@
         <v>9624</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>502</v>
+        <v>391</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -10231,13 +10213,13 @@
         <v>13933</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>755</v>
+        <v>76</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>296</v>
+        <v>749</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -10246,13 +10228,13 @@
         <v>23557</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>563</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10267,13 +10249,13 @@
         <v>158623</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="H30" s="7">
         <v>307</v>
@@ -10282,13 +10264,13 @@
         <v>339652</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="M30" s="7">
         <v>454</v>
@@ -10297,13 +10279,13 @@
         <v>498275</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10359,7 +10341,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10371,13 +10353,13 @@
         <v>753690</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="H32" s="7">
         <v>898</v>
@@ -10386,13 +10368,13 @@
         <v>728496</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="M32" s="7">
         <v>1563</v>
@@ -10401,13 +10383,13 @@
         <v>1482186</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10422,13 +10404,13 @@
         <v>3242</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>776</v>
+        <v>484</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
@@ -10437,13 +10419,13 @@
         <v>3572</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>777</v>
+        <v>392</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>368</v>
+        <v>201</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
@@ -10452,13 +10434,13 @@
         <v>6813</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>392</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10473,13 +10455,13 @@
         <v>102496</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="H34" s="7">
         <v>157</v>
@@ -10488,13 +10470,13 @@
         <v>132971</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>467</v>
+        <v>778</v>
       </c>
       <c r="M34" s="7">
         <v>250</v>
@@ -10503,13 +10485,13 @@
         <v>235467</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10577,13 +10559,13 @@
         <v>2697221</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>123</v>
+        <v>521</v>
       </c>
       <c r="H36" s="7">
         <v>4043</v>
@@ -10592,13 +10574,13 @@
         <v>2776461</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="M36" s="7">
         <v>6723</v>
@@ -10607,13 +10589,13 @@
         <v>5473682</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>795</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10628,13 +10610,13 @@
         <v>20619</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>796</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H37" s="7">
         <v>49</v>
@@ -10643,13 +10625,13 @@
         <v>31355</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>796</v>
+        <v>224</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M37" s="7">
         <v>74</v>
@@ -10658,13 +10640,13 @@
         <v>51974</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>524</v>
+        <v>204</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>368</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10679,13 +10661,13 @@
         <v>665449</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>154</v>
+        <v>791</v>
       </c>
       <c r="H38" s="7">
         <v>1264</v>
@@ -10694,13 +10676,13 @@
         <v>990409</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>158</v>
+        <v>792</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="M38" s="7">
         <v>1934</v>
@@ -10709,13 +10691,13 @@
         <v>1655858</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>281</v>
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10771,7 +10753,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB122D8-8993-4D08-8643-0B11D7DE1332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3E5FF9-8D8D-4CC2-BA89-D8AD7F71AD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E23A27F8-9C69-4016-8B75-FD83C8023AFB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3C741632-1322-4D61-8275-77838B40E971}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="822">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -764,7 +764,85 @@
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>74,03%</t>
@@ -914,975 +992,978 @@
     <t>28,26%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>67,65%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
     <t>1,9%</t>
   </si>
   <si>
@@ -1907,529 +1988,523 @@
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
 </sst>
 </file>
@@ -2841,7 +2916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53656667-A56A-47B7-A3D6-F972BFFE6AAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDAC1D7-457D-4A8B-B94E-BD942F952962}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4610,7 +4685,7 @@
         <v>2664</v>
       </c>
       <c r="D36" s="7">
-        <v>2715312</v>
+        <v>2715313</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>215</v>
@@ -4640,7 +4715,7 @@
         <v>5157</v>
       </c>
       <c r="N36" s="7">
-        <v>5269561</v>
+        <v>5269560</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>221</v>
@@ -4763,7 +4838,7 @@
         <v>3213</v>
       </c>
       <c r="D39" s="7">
-        <v>3275658</v>
+        <v>3275659</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4793,7 +4868,7 @@
         <v>6509</v>
       </c>
       <c r="N39" s="7">
-        <v>6653916</v>
+        <v>6653915</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -4831,7 +4906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522DC18E-31F9-4F47-9B00-151041B3BC01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC9815B-E332-4426-896E-B26FE7C2C6A6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4949,43 +5024,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="D4" s="7">
+        <v>193001</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="I4" s="7">
+        <v>175303</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>340</v>
+      </c>
+      <c r="N4" s="7">
+        <v>368304</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,43 +5075,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6421</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6328</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="N5" s="7">
+        <v>12749</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,43 +5126,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="D6" s="7">
+        <v>94589</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="I6" s="7">
+        <v>104436</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="N6" s="7">
+        <v>199025</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,43 +5177,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294011</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="I7" s="7">
+        <v>286067</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N7" s="7">
+        <v>580078</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5236,13 @@
         <v>374221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -5152,13 +5251,13 @@
         <v>324564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>644</v>
@@ -5167,13 +5266,13 @@
         <v>698784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5287,13 @@
         <v>4079</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5203,13 +5302,13 @@
         <v>7476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -5218,13 +5317,13 @@
         <v>11554</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5338,13 @@
         <v>127228</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>178</v>
@@ -5254,13 +5353,13 @@
         <v>191726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
@@ -5269,13 +5368,13 @@
         <v>318953</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5442,13 @@
         <v>247524</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="H12" s="7">
         <v>228</v>
@@ -5358,13 +5457,13 @@
         <v>244762</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="M12" s="7">
         <v>471</v>
@@ -5373,13 +5472,13 @@
         <v>492286</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5493,13 @@
         <v>4357</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5409,7 +5508,7 @@
         <v>4366</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>174</v>
@@ -5424,13 +5523,13 @@
         <v>8722</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5544,13 @@
         <v>72165</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="H14" s="7">
         <v>85</v>
@@ -5460,13 +5559,13 @@
         <v>91892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="M14" s="7">
         <v>157</v>
@@ -5475,13 +5574,13 @@
         <v>164057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,49 +5642,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>455</v>
+        <v>271</v>
       </c>
       <c r="D16" s="7">
-        <v>486421</v>
+        <v>293420</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="I16" s="7">
-        <v>458628</v>
+        <v>283325</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="M16" s="7">
-        <v>881</v>
+        <v>541</v>
       </c>
       <c r="N16" s="7">
-        <v>945050</v>
+        <v>576746</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,49 +5693,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>11358</v>
+        <v>4936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>10360</v>
+        <v>4032</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>329</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>21717</v>
+        <v>8969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,49 +5744,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="D18" s="7">
-        <v>170214</v>
+        <v>75625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="H18" s="7">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="I18" s="7">
-        <v>205071</v>
+        <v>100634</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="M18" s="7">
-        <v>347</v>
+        <v>164</v>
       </c>
       <c r="N18" s="7">
-        <v>375285</v>
+        <v>176260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,10 +5795,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>625</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>667993</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5711,10 +5810,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>625</v>
+        <v>370</v>
       </c>
       <c r="I19" s="7">
-        <v>674059</v>
+        <v>387992</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -5726,10 +5825,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>1250</v>
+        <v>714</v>
       </c>
       <c r="N19" s="7">
-        <v>1342052</v>
+        <v>761974</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5755,13 +5854,13 @@
         <v>175751</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>136</v>
@@ -5770,13 +5869,13 @@
         <v>140677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>296</v>
@@ -5785,13 +5884,13 @@
         <v>316428</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,7 +5911,7 @@
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -5821,13 +5920,13 @@
         <v>4762</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>227</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -5836,13 +5935,13 @@
         <v>5796</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5956,13 @@
         <v>35832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -5872,13 +5971,13 @@
         <v>74152</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -5887,13 +5986,13 @@
         <v>109985</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +6060,13 @@
         <v>209702</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="H24" s="7">
         <v>178</v>
@@ -5976,13 +6075,13 @@
         <v>183883</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="M24" s="7">
         <v>378</v>
@@ -5991,13 +6090,13 @@
         <v>393584</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,13 +6111,13 @@
         <v>3186</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -6027,13 +6126,13 @@
         <v>4257</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -6042,13 +6141,13 @@
         <v>7443</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>77</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6162,13 @@
         <v>61094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -6078,13 +6177,13 @@
         <v>91891</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -6093,13 +6192,13 @@
         <v>152985</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,13 +6266,13 @@
         <v>516101</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>462</v>
@@ -6185,10 +6284,10 @@
         <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="M28" s="7">
         <v>943</v>
@@ -6197,13 +6296,13 @@
         <v>1023023</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,7 +6323,7 @@
         <v>77</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -6236,10 +6335,10 @@
         <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6248,13 +6347,13 @@
         <v>21004</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6368,13 @@
         <v>138749</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="H30" s="7">
         <v>163</v>
@@ -6284,13 +6383,13 @@
         <v>173866</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="M30" s="7">
         <v>292</v>
@@ -6299,13 +6398,13 @@
         <v>312615</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,13 +6472,13 @@
         <v>707820</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="H32" s="7">
         <v>662</v>
@@ -6388,13 +6487,13 @@
         <v>716295</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="M32" s="7">
         <v>1317</v>
@@ -6403,13 +6502,13 @@
         <v>1424115</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6523,13 @@
         <v>3113</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>198</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -6439,7 +6538,7 @@
         <v>9004</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>197</v>
@@ -6454,13 +6553,13 @@
         <v>12117</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6574,13 @@
         <v>66211</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="H34" s="7">
         <v>86</v>
@@ -6490,13 +6589,13 @@
         <v>97585</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="M34" s="7">
         <v>143</v>
@@ -6505,13 +6604,13 @@
         <v>163796</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6678,13 @@
         <v>2717540</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="H36" s="7">
         <v>2387</v>
@@ -6594,28 +6693,28 @@
         <v>2575731</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="M36" s="7">
         <v>4930</v>
       </c>
       <c r="N36" s="7">
-        <v>5293272</v>
+        <v>5293271</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6729,13 @@
         <v>35064</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>302</v>
+        <v>439</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="H37" s="7">
         <v>49</v>
@@ -6648,10 +6747,10 @@
         <v>53</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="M37" s="7">
         <v>84</v>
@@ -6663,10 +6762,10 @@
         <v>172</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,43 +6780,43 @@
         <v>671493</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="H38" s="7">
         <v>859</v>
       </c>
       <c r="I38" s="7">
-        <v>926183</v>
+        <v>926182</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="M38" s="7">
         <v>1487</v>
       </c>
       <c r="N38" s="7">
-        <v>1597676</v>
+        <v>1597675</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,7 +6843,7 @@
         <v>3295</v>
       </c>
       <c r="I39" s="7">
-        <v>3555204</v>
+        <v>3555203</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>36</v>
@@ -6759,7 +6858,7 @@
         <v>6501</v>
       </c>
       <c r="N39" s="7">
-        <v>6979302</v>
+        <v>6979301</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6797,7 +6896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B549C98A-7E75-477E-8484-D718B4A78ED3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F250C58-922D-4AA5-A7EE-E306517E0948}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6814,7 +6913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6921,13 +7020,13 @@
         <v>210063</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="H4" s="7">
         <v>173</v>
@@ -6936,13 +7035,13 @@
         <v>182764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="M4" s="7">
         <v>363</v>
@@ -6951,13 +7050,13 @@
         <v>392827</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>296</v>
+        <v>461</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,13 +7071,13 @@
         <v>5291</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>435</v>
+        <v>252</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6987,13 +7086,13 @@
         <v>1211</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7002,13 +7101,13 @@
         <v>6502</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,13 +7122,13 @@
         <v>78407</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -7038,13 +7137,13 @@
         <v>102909</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="M6" s="7">
         <v>173</v>
@@ -7053,13 +7152,13 @@
         <v>181316</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,13 +7226,13 @@
         <v>418908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="H8" s="7">
         <v>382</v>
@@ -7142,13 +7241,13 @@
         <v>413084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="M8" s="7">
         <v>781</v>
@@ -7157,13 +7256,13 @@
         <v>831992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,10 +7277,10 @@
         <v>3473</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>205</v>
@@ -7193,13 +7292,13 @@
         <v>4621</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>461</v>
+        <v>253</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -7208,10 +7307,10 @@
         <v>8093</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>462</v>
+        <v>254</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>50</v>
@@ -7229,13 +7328,13 @@
         <v>80194</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -7247,10 +7346,10 @@
         <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="M10" s="7">
         <v>171</v>
@@ -7259,13 +7358,13 @@
         <v>185574</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,13 +7432,13 @@
         <v>275849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="H12" s="7">
         <v>282</v>
@@ -7348,13 +7447,13 @@
         <v>286525</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="M12" s="7">
         <v>573</v>
@@ -7363,13 +7462,13 @@
         <v>562374</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,13 +7483,13 @@
         <v>8875</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -7399,13 +7498,13 @@
         <v>7855</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -7414,13 +7513,13 @@
         <v>16730</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,13 +7534,13 @@
         <v>28390</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -7450,13 +7549,13 @@
         <v>39429</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="M14" s="7">
         <v>70</v>
@@ -7465,13 +7564,13 @@
         <v>67818</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7638,13 @@
         <v>269650</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="H16" s="7">
         <v>246</v>
@@ -7554,13 +7653,13 @@
         <v>261869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="M16" s="7">
         <v>507</v>
@@ -7569,13 +7668,13 @@
         <v>531519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7689,13 @@
         <v>2731</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -7605,13 +7704,13 @@
         <v>6866</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -7626,7 +7725,7 @@
         <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7740,13 @@
         <v>94625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="H18" s="7">
         <v>106</v>
@@ -7656,13 +7755,13 @@
         <v>118548</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>181</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="M18" s="7">
         <v>193</v>
@@ -7671,13 +7770,13 @@
         <v>213173</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>516</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7844,13 @@
         <v>182609</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>191</v>
@@ -7760,13 +7859,13 @@
         <v>187185</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>374</v>
@@ -7775,13 +7874,13 @@
         <v>369795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>525</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,7 +7901,7 @@
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -7811,13 +7910,13 @@
         <v>5145</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -7826,13 +7925,13 @@
         <v>7077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>204</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>529</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7946,13 @@
         <v>24423</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -7862,13 +7961,13 @@
         <v>25389</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>535</v>
+        <v>562</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -7877,13 +7976,13 @@
         <v>49812</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>537</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +8050,13 @@
         <v>205380</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="H24" s="7">
         <v>192</v>
@@ -7966,13 +8065,13 @@
         <v>196741</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>543</v>
+        <v>570</v>
       </c>
       <c r="M24" s="7">
         <v>393</v>
@@ -7981,13 +8080,13 @@
         <v>402121</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +8101,13 @@
         <v>8620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -8017,13 +8116,13 @@
         <v>1983</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -8032,13 +8131,13 @@
         <v>10602</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8152,13 @@
         <v>49123</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="H26" s="7">
         <v>69</v>
@@ -8068,13 +8167,13 @@
         <v>74392</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="M26" s="7">
         <v>119</v>
@@ -8083,13 +8182,13 @@
         <v>123515</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,13 +8256,13 @@
         <v>581241</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="H28" s="7">
         <v>532</v>
@@ -8172,13 +8271,13 @@
         <v>565045</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="M28" s="7">
         <v>1047</v>
@@ -8187,13 +8286,13 @@
         <v>1146286</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,13 +8307,13 @@
         <v>7196</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -8223,13 +8322,13 @@
         <v>22690</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>568</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -8238,13 +8337,13 @@
         <v>29885</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8358,13 @@
         <v>68122</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="H30" s="7">
         <v>94</v>
@@ -8274,13 +8373,13 @@
         <v>102288</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="M30" s="7">
         <v>152</v>
@@ -8289,13 +8388,13 @@
         <v>170410</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,13 +8462,13 @@
         <v>675396</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="H32" s="7">
         <v>627</v>
@@ -8378,13 +8477,13 @@
         <v>683389</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="M32" s="7">
         <v>1278</v>
@@ -8393,13 +8492,13 @@
         <v>1358785</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8414,13 +8513,13 @@
         <v>8090</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>588</v>
+        <v>328</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -8429,13 +8528,13 @@
         <v>10187</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>104</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>303</v>
+        <v>617</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -8444,13 +8543,13 @@
         <v>18277</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8465,13 +8564,13 @@
         <v>95097</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="H34" s="7">
         <v>120</v>
@@ -8480,13 +8579,13 @@
         <v>132591</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="M34" s="7">
         <v>211</v>
@@ -8495,13 +8594,13 @@
         <v>227688</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8569,13 +8668,13 @@
         <v>2819094</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="H36" s="7">
         <v>2625</v>
@@ -8584,28 +8683,28 @@
         <v>2776603</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="M36" s="7">
         <v>5316</v>
       </c>
       <c r="N36" s="7">
-        <v>5595699</v>
+        <v>5595698</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8620,10 +8719,10 @@
         <v>46208</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>200</v>
@@ -8635,28 +8734,28 @@
         <v>60556</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="M37" s="7">
         <v>98</v>
       </c>
       <c r="N37" s="7">
-        <v>106764</v>
+        <v>106763</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>299</v>
+        <v>640</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8671,10 +8770,10 @@
         <v>518382</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>130</v>
@@ -8686,13 +8785,13 @@
         <v>700924</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="M38" s="7">
         <v>1140</v>
@@ -8701,13 +8800,13 @@
         <v>1219306</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,7 +8848,7 @@
         <v>6554</v>
       </c>
       <c r="N39" s="7">
-        <v>6921768</v>
+        <v>6921767</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -8787,7 +8886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B50BC6A-110D-4998-9807-FA04093CADD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1156A096-716E-4241-A6F1-0860CBB7883A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8804,7 +8903,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8908,46 +9007,46 @@
         <v>225</v>
       </c>
       <c r="D4" s="7">
-        <v>170436</v>
+        <v>204479</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="H4" s="7">
         <v>334</v>
       </c>
       <c r="I4" s="7">
-        <v>164778</v>
+        <v>176162</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="M4" s="7">
         <v>559</v>
       </c>
       <c r="N4" s="7">
-        <v>335214</v>
+        <v>380641</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8959,46 +9058,46 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1316</v>
+        <v>1417</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>631</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>632</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>459</v>
+        <v>54</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>634</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>3706</v>
+        <v>3804</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>635</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>78</v>
+        <v>659</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>47</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9010,46 +9109,46 @@
         <v>104</v>
       </c>
       <c r="D6" s="7">
-        <v>88545</v>
+        <v>105547</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="H6" s="7">
         <v>199</v>
       </c>
       <c r="I6" s="7">
-        <v>104236</v>
+        <v>111085</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="M6" s="7">
         <v>303</v>
       </c>
       <c r="N6" s="7">
-        <v>192781</v>
+        <v>216632</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9061,7 +9160,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -9076,7 +9175,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -9091,7 +9190,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -9114,46 +9213,46 @@
         <v>321</v>
       </c>
       <c r="D8" s="7">
-        <v>440659</v>
+        <v>439768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="H8" s="7">
         <v>568</v>
       </c>
       <c r="I8" s="7">
-        <v>442026</v>
+        <v>411015</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>649</v>
+        <v>457</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="M8" s="7">
         <v>889</v>
       </c>
       <c r="N8" s="7">
-        <v>882685</v>
+        <v>850783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9174,37 +9273,37 @@
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>2478</v>
+        <v>2135</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>325</v>
+        <v>465</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>412</v>
+        <v>326</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>2478</v>
+        <v>2135</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>655</v>
+        <v>278</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9216,46 +9315,46 @@
         <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>78638</v>
+        <v>78622</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
       </c>
       <c r="I10" s="7">
-        <v>109119</v>
+        <v>100943</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>684</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="M10" s="7">
         <v>206</v>
       </c>
       <c r="N10" s="7">
-        <v>187757</v>
+        <v>179565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>596</v>
+        <v>687</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9267,7 +9366,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -9282,7 +9381,7 @@
         <v>716</v>
       </c>
       <c r="I11" s="7">
-        <v>553623</v>
+        <v>514093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -9297,7 +9396,7 @@
         <v>1098</v>
       </c>
       <c r="N11" s="7">
-        <v>1072920</v>
+        <v>1032483</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -9320,46 +9419,46 @@
         <v>272</v>
       </c>
       <c r="D12" s="7">
-        <v>248759</v>
+        <v>244241</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="H12" s="7">
         <v>369</v>
       </c>
       <c r="I12" s="7">
-        <v>252639</v>
+        <v>236415</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
       <c r="M12" s="7">
         <v>641</v>
       </c>
       <c r="N12" s="7">
-        <v>501397</v>
+        <v>480656</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9371,46 +9470,46 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>3150</v>
+        <v>2968</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>596</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>4458</v>
+        <v>4143</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>7608</v>
+        <v>7111</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>675</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9422,46 +9521,46 @@
         <v>84</v>
       </c>
       <c r="D14" s="7">
-        <v>70332</v>
+        <v>68841</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>676</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>701</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>677</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>160</v>
       </c>
       <c r="I14" s="7">
-        <v>115583</v>
+        <v>108023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>678</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>680</v>
+        <v>703</v>
       </c>
       <c r="M14" s="7">
         <v>244</v>
       </c>
       <c r="N14" s="7">
-        <v>185915</v>
+        <v>176865</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>681</v>
+        <v>704</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>682</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9473,7 +9572,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -9488,7 +9587,7 @@
         <v>535</v>
       </c>
       <c r="I15" s="7">
-        <v>372680</v>
+        <v>348582</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -9503,7 +9602,7 @@
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>694920</v>
+        <v>664632</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -9526,46 +9625,46 @@
         <v>229</v>
       </c>
       <c r="D16" s="7">
-        <v>240576</v>
+        <v>234476</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="H16" s="7">
         <v>460</v>
       </c>
       <c r="I16" s="7">
-        <v>327957</v>
+        <v>383564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>709</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="M16" s="7">
         <v>689</v>
       </c>
       <c r="N16" s="7">
-        <v>568533</v>
+        <v>618040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>690</v>
+        <v>713</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>691</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9577,46 +9676,46 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1449</v>
+        <v>1366</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>124</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>4129</v>
+        <v>3833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>124</v>
+        <v>490</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>5578</v>
+        <v>5199</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>505</v>
+        <v>716</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>717</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9628,46 +9727,46 @@
         <v>60</v>
       </c>
       <c r="D18" s="7">
-        <v>78276</v>
+        <v>74960</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>694</v>
+        <v>383</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="H18" s="7">
         <v>131</v>
       </c>
       <c r="I18" s="7">
-        <v>96470</v>
+        <v>88321</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>697</v>
+        <v>644</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
       </c>
       <c r="N18" s="7">
-        <v>174746</v>
+        <v>163281</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>236</v>
+        <v>724</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>701</v>
+        <v>725</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9679,7 +9778,7 @@
         <v>291</v>
       </c>
       <c r="D19" s="7">
-        <v>320301</v>
+        <v>310803</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -9694,7 +9793,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -9709,7 +9808,7 @@
         <v>890</v>
       </c>
       <c r="N19" s="7">
-        <v>748857</v>
+        <v>786521</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -9732,46 +9831,46 @@
         <v>256</v>
       </c>
       <c r="D20" s="7">
-        <v>177522</v>
+        <v>161534</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>702</v>
+        <v>726</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="H20" s="7">
         <v>468</v>
       </c>
       <c r="I20" s="7">
-        <v>220759</v>
+        <v>198564</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="M20" s="7">
         <v>724</v>
       </c>
       <c r="N20" s="7">
-        <v>398281</v>
+        <v>360098</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9792,7 +9891,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -9807,7 +9906,7 @@
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -9822,7 +9921,7 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>674</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9834,46 +9933,46 @@
         <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>19226</v>
+        <v>17208</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>711</v>
+        <v>736</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>713</v>
+        <v>738</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
       </c>
       <c r="I22" s="7">
-        <v>11144</v>
+        <v>10092</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>714</v>
+        <v>739</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>715</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
       </c>
       <c r="N22" s="7">
-        <v>30370</v>
+        <v>27300</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9885,7 +9984,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -9900,7 +9999,7 @@
         <v>492</v>
       </c>
       <c r="I23" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -9915,7 +10014,7 @@
         <v>771</v>
       </c>
       <c r="N23" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -9938,46 +10037,46 @@
         <v>270</v>
       </c>
       <c r="D24" s="7">
-        <v>206071</v>
+        <v>200850</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="H24" s="7">
         <v>318</v>
       </c>
       <c r="I24" s="7">
-        <v>193992</v>
+        <v>181282</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="M24" s="7">
         <v>588</v>
       </c>
       <c r="N24" s="7">
-        <v>400063</v>
+        <v>382132</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9989,22 +10088,22 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>1838</v>
+        <v>1731</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>657</v>
+        <v>535</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>414</v>
+        <v>700</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>171</v>
@@ -10019,16 +10118,16 @@
         <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>2234</v>
+        <v>2100</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10040,46 +10139,46 @@
         <v>98</v>
       </c>
       <c r="D26" s="7">
-        <v>69314</v>
+        <v>67055</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="H26" s="7">
         <v>141</v>
       </c>
       <c r="I26" s="7">
-        <v>81234</v>
+        <v>75404</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>733</v>
+        <v>757</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="M26" s="7">
         <v>239</v>
       </c>
       <c r="N26" s="7">
-        <v>150548</v>
+        <v>142460</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>738</v>
+        <v>762</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10091,7 +10190,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -10106,7 +10205,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>36</v>
@@ -10121,7 +10220,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -10144,46 +10243,46 @@
         <v>442</v>
       </c>
       <c r="D28" s="7">
-        <v>459507</v>
+        <v>456843</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>359</v>
+        <v>751</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>740</v>
+        <v>348</v>
       </c>
       <c r="H28" s="7">
         <v>628</v>
       </c>
       <c r="I28" s="7">
-        <v>445814</v>
+        <v>416578</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="M28" s="7">
         <v>1070</v>
       </c>
       <c r="N28" s="7">
-        <v>905321</v>
+        <v>873421</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>744</v>
+        <v>767</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>746</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10195,46 +10294,46 @@
         <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>9624</v>
+        <v>9160</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
       </c>
       <c r="I29" s="7">
-        <v>13933</v>
+        <v>12079</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>749</v>
+        <v>772</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
       </c>
       <c r="N29" s="7">
-        <v>23557</v>
+        <v>21239</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>751</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10246,46 +10345,46 @@
         <v>147</v>
       </c>
       <c r="D30" s="7">
-        <v>158623</v>
+        <v>158277</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>752</v>
+        <v>775</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="H30" s="7">
         <v>307</v>
       </c>
       <c r="I30" s="7">
-        <v>339652</v>
+        <v>416433</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>755</v>
+        <v>778</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>756</v>
+        <v>779</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>757</v>
+        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>454</v>
       </c>
       <c r="N30" s="7">
-        <v>498275</v>
+        <v>574709</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10297,7 +10396,7 @@
         <v>599</v>
       </c>
       <c r="D31" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>36</v>
@@ -10312,7 +10411,7 @@
         <v>956</v>
       </c>
       <c r="I31" s="7">
-        <v>799399</v>
+        <v>845090</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>36</v>
@@ -10327,7 +10426,7 @@
         <v>1555</v>
       </c>
       <c r="N31" s="7">
-        <v>1427153</v>
+        <v>1469369</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>
@@ -10350,46 +10449,46 @@
         <v>665</v>
       </c>
       <c r="D32" s="7">
-        <v>753690</v>
+        <v>838948</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="H32" s="7">
         <v>898</v>
       </c>
       <c r="I32" s="7">
-        <v>728496</v>
+        <v>603623</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="M32" s="7">
         <v>1563</v>
       </c>
       <c r="N32" s="7">
-        <v>1482186</v>
+        <v>1442572</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10401,46 +10500,46 @@
         <v>4</v>
       </c>
       <c r="D33" s="7">
-        <v>3242</v>
+        <v>2825</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>149</v>
+        <v>717</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>770</v>
+        <v>678</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>484</v>
+        <v>173</v>
       </c>
       <c r="H33" s="7">
         <v>5</v>
       </c>
       <c r="I33" s="7">
-        <v>3572</v>
+        <v>2923</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>201</v>
+        <v>393</v>
       </c>
       <c r="M33" s="7">
         <v>9</v>
       </c>
       <c r="N33" s="7">
-        <v>6813</v>
+        <v>5748</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>388</v>
+        <v>793</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>772</v>
+        <v>171</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>101</v>
+        <v>794</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10452,46 +10551,46 @@
         <v>93</v>
       </c>
       <c r="D34" s="7">
-        <v>102496</v>
+        <v>86947</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="H34" s="7">
         <v>157</v>
       </c>
       <c r="I34" s="7">
-        <v>132971</v>
+        <v>108314</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="M34" s="7">
         <v>250</v>
       </c>
       <c r="N34" s="7">
-        <v>235467</v>
+        <v>195261</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>780</v>
+        <v>741</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>781</v>
+        <v>802</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10503,7 +10602,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>36</v>
@@ -10518,7 +10617,7 @@
         <v>1060</v>
       </c>
       <c r="I35" s="7">
-        <v>865038</v>
+        <v>714861</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>36</v>
@@ -10533,7 +10632,7 @@
         <v>1822</v>
       </c>
       <c r="N35" s="7">
-        <v>1724466</v>
+        <v>1643582</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>36</v>
@@ -10556,46 +10655,46 @@
         <v>2680</v>
       </c>
       <c r="D36" s="7">
-        <v>2697221</v>
+        <v>2781140</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>783</v>
+        <v>525</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>521</v>
+        <v>804</v>
       </c>
       <c r="H36" s="7">
         <v>4043</v>
       </c>
       <c r="I36" s="7">
-        <v>2776461</v>
+        <v>2607205</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>785</v>
+        <v>806</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>786</v>
+        <v>807</v>
       </c>
       <c r="M36" s="7">
         <v>6723</v>
       </c>
       <c r="N36" s="7">
-        <v>5473682</v>
+        <v>5388344</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>787</v>
+        <v>808</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>168</v>
+        <v>810</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10607,46 +10706,46 @@
         <v>25</v>
       </c>
       <c r="D37" s="7">
-        <v>20619</v>
+        <v>19467</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>811</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>388</v>
+        <v>149</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>459</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>49</v>
       </c>
       <c r="I37" s="7">
-        <v>31355</v>
+        <v>27870</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>227</v>
+        <v>419</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>592</v>
+        <v>417</v>
       </c>
       <c r="M37" s="7">
         <v>74</v>
       </c>
       <c r="N37" s="7">
-        <v>51974</v>
+        <v>47337</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>173</v>
+        <v>812</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10658,46 +10757,46 @@
         <v>670</v>
       </c>
       <c r="D38" s="7">
-        <v>665449</v>
+        <v>657457</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="H38" s="7">
         <v>1264</v>
       </c>
       <c r="I38" s="7">
-        <v>990409</v>
+        <v>1018616</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="M38" s="7">
         <v>1934</v>
       </c>
       <c r="N38" s="7">
-        <v>1655858</v>
+        <v>1676074</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>736</v>
+        <v>821</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10709,7 +10808,7 @@
         <v>3375</v>
       </c>
       <c r="D39" s="7">
-        <v>3383289</v>
+        <v>3458064</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -10724,7 +10823,7 @@
         <v>5356</v>
       </c>
       <c r="I39" s="7">
-        <v>3798225</v>
+        <v>3653691</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>36</v>
@@ -10739,7 +10838,7 @@
         <v>8731</v>
       </c>
       <c r="N39" s="7">
-        <v>7181514</v>
+        <v>7111755</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
